--- a/biology/Microbiologie/Piézophile/Piézophile.xlsx
+++ b/biology/Microbiologie/Piézophile/Piézophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pi%C3%A9zophile</t>
+          <t>Piézophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les organismes piézophiles (« piezzophiles », ou « barophiles ») sont des êtres vivants qui ne peuvent vivre qu'en pression hyperbare (à des pressions très élevées) comme les bactéries et plus particulièrement les Archaea vivant dans les grands-fonds océaniques.
 De nombreux[Combien ?] vertébrés, invertébrés et des micro-organismes (surtout des procaryotes) sont trouvés là où la pression dépasse souvent les 380 atmosphères[réf. nécessaire] (environ 38 Mégapascals).
-Certains de ces organismes piézophiles ont été découverts au fond de l'océan Pacifique où la pression était de 117 Mégapascals[1].
+Certains de ces organismes piézophiles ont été découverts au fond de l'océan Pacifique où la pression était de 117 Mégapascals.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pi%C3%A9zophile</t>
+          <t>Piézophile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La bactérie «  MT 41 »
-La bactérie « MT 41 » a été trouvée à 10 700 mètres de fond dans la fosse des Mariannes, sous une pression de 1 100 atmosphères à une température de 2 °C. Cette bactérie meurt en surface à pression ambiante et ne se reproduit plus quand la pression est inférieure à 380 atmosphères[1].
-Mécanismes adaptatifs chez cette bactérie
-Les parois cellulaires de la bactérie MT 41 protègent leur cytoplasme par des acides gras polyinsaturés à longue chaîne (comprenant jusqu'à 22 atomes de carbone) et la bactérie synthétise des pores protéiques particuliers (porines) contrôlant les échanges avec le milieu externe. À très haute pression, l'eau reste liquide à plus de 100 °C (dans les sources hydrothermales profondes). Des bactéries peuvent y vivre.
-L'hypothèse sur l'ancêtre commun à tous les êtres vivants
-Certains scientifiques font l'hypothèse que les micro-organismes barophiles et thermophiles ressembleraient plus que tout autre être vivant actuel à l'ancêtre commun de toutes les cellules modernes, LUCA[2], et que la structure du code génétique aurait été formée chez ces organismes, en milieu hyperthermique et à haute pression hydrostatique[3]. Cette hypothèse ne fait cependant pas l'unanimité parmi les scientifiques, car on connaît peu de séquences chez des organismes barophiles.
+          <t>La bactérie «  MT 41 »</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bactérie « MT 41 » a été trouvée à 10 700 mètres de fond dans la fosse des Mariannes, sous une pression de 1 100 atmosphères à une température de 2 °C. Cette bactérie meurt en surface à pression ambiante et ne se reproduit plus quand la pression est inférieure à 380 atmosphères.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pi%C3%A9zophile</t>
+          <t>Piézophile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +559,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Micro-organismes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La bactérie «  MT 41 »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mécanismes adaptatifs chez cette bactérie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parois cellulaires de la bactérie MT 41 protègent leur cytoplasme par des acides gras polyinsaturés à longue chaîne (comprenant jusqu'à 22 atomes de carbone) et la bactérie synthétise des pores protéiques particuliers (porines) contrôlant les échanges avec le milieu externe. À très haute pression, l'eau reste liquide à plus de 100 °C (dans les sources hydrothermales profondes). Des bactéries peuvent y vivre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Piézophile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9zophile</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Micro-organismes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'hypothèse sur l'ancêtre commun à tous les êtres vivants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains scientifiques font l'hypothèse que les micro-organismes barophiles et thermophiles ressembleraient plus que tout autre être vivant actuel à l'ancêtre commun de toutes les cellules modernes, LUCA, et que la structure du code génétique aurait été formée chez ces organismes, en milieu hyperthermique et à haute pression hydrostatique. Cette hypothèse ne fait cependant pas l'unanimité parmi les scientifiques, car on connaît peu de séquences chez des organismes barophiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Piézophile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pi%C3%A9zophile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vertébrés : 2 familles de poissons téléostéens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parmi les poissons abyssaux, il y a seulement deux familles[4] de poissons téléostéens qui peuvent vivre en dessous de 6 000 mètres de profondeur (en zone hadale) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parmi les poissons abyssaux, il y a seulement deux familles de poissons téléostéens qui peuvent vivre en dessous de 6 000 mètres de profondeur (en zone hadale) :
 Liparidae ;
 Ophidiidae.</t>
         </is>
